--- a/01_data_clean/macro/gpr_USA.xlsx
+++ b/01_data_clean/macro/gpr_USA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\magistrale\AMUniversite\credit risk\DRIM2025_Project0\01_data_clean\macro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{888AA1AC-4942-4A3F-A68E-DA2225498C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911A812E-FBBD-48C9-9E05-FBE43266F9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{33065015-DBBE-4F8C-8C81-9DD0DF580612}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>GPRC_USA</t>
+    <t>gpr</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:B131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
